--- a/QA/testcases/TestCaseExe - Ok.xlsx
+++ b/QA/testcases/TestCaseExe - Ok.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27465" windowHeight="14685"/>
+    <workbookView windowWidth="27465" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
   <si>
     <t>Module Name</t>
   </si>
@@ -23,17 +23,41 @@
     <t>Test Case Name</t>
   </si>
   <si>
+    <t>Module</t>
+  </si>
+  <si>
     <t>Pharmacy</t>
   </si>
   <si>
     <t>Phar_Patient_App_Create__Denied-Ok</t>
   </si>
+  <si>
+    <t>Provider</t>
+  </si>
+  <si>
+    <t>Prov_Patient_App_Create__Denied-Ok</t>
+  </si>
+  <si>
+    <t>Patient</t>
+  </si>
+  <si>
+    <t>Patient_Registration_Positive_Yes</t>
+  </si>
+  <si>
+    <t>PatientApp_Process_Positive_PCase_Yes</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -48,8 +72,159 @@
       <name val="Arial"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -62,8 +237,194 @@
         <bgColor indexed="13"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -71,9 +432,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -83,10 +686,57 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -348,52 +998,89 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="2" max="2" width="40.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="19.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="39.2857142857143" customWidth="1"/>
+    <col min="6" max="6" width="41.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="6:6">
+      <c r="F3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/QA/testcases/TestCaseExe - Ok.xlsx
+++ b/QA/testcases/TestCaseExe - Ok.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
   <si>
     <t>Module Name</t>
   </si>
@@ -44,6 +44,9 @@
     <t>Patient_Registration_Positive_Yes</t>
   </si>
   <si>
+    <t>Phar_Patient_App_Create_PCase_Positive-OK</t>
+  </si>
+  <si>
     <t>PatientApp_Process_Positive_PCase_Yes</t>
   </si>
 </sst>
@@ -52,10 +55,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -73,6 +76,27 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -81,6 +105,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -89,58 +135,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -149,6 +143,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -156,9 +182,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,51 +220,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -239,6 +242,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -251,175 +296,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,8 +439,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -457,32 +484,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,13 +504,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,162 +533,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1007,7 +1010,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="5"/>
@@ -1058,9 +1061,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="6:6">
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/QA/testcases/TestCaseExe - Ok.xlsx
+++ b/QA/testcases/TestCaseExe - Ok.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
   <si>
     <t>Module Name</t>
   </si>
@@ -47,7 +47,13 @@
     <t>Phar_Patient_App_Create_PCase_Positive-OK</t>
   </si>
   <si>
+    <t>Prov_Patient_App_ViewIncomplete</t>
+  </si>
+  <si>
     <t>PatientApp_Process_Positive_PCase_Yes</t>
+  </si>
+  <si>
+    <t>Phar_Patient_App_ViewIncomplete -ok</t>
   </si>
 </sst>
 </file>
@@ -55,12 +61,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -76,8 +82,18 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -86,14 +102,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -106,7 +115,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -114,16 +123,32 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -135,6 +160,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -143,30 +213,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -176,36 +222,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -213,15 +229,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,49 +257,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,121 +425,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,17 +454,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -465,6 +486,39 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -494,200 +548,164 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1007,15 +1025,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="40.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="46.1428571428571" customWidth="1"/>
     <col min="3" max="3" width="19.1428571428571" customWidth="1"/>
     <col min="4" max="4" width="39.2857142857143" customWidth="1"/>
     <col min="6" max="6" width="41.1428571428571" customWidth="1"/>
@@ -1042,19 +1060,19 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F2" t="s">
@@ -1062,14 +1080,31 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/QA/testcases/TestCaseExe - Ok.xlsx
+++ b/QA/testcases/TestCaseExe - Ok.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
   <si>
     <t>Module Name</t>
   </si>
@@ -23,6 +23,9 @@
     <t>Test Case Name</t>
   </si>
   <si>
+    <t>Comments</t>
+  </si>
+  <si>
     <t>Module</t>
   </si>
   <si>
@@ -32,6 +35,9 @@
     <t>Phar_Patient_App_Create__Denied-Ok</t>
   </si>
   <si>
+    <t>Denied Status</t>
+  </si>
+  <si>
     <t>Provider</t>
   </si>
   <si>
@@ -44,9 +50,15 @@
     <t>Patient_Registration_Positive_Yes</t>
   </si>
   <si>
+    <t>Registration positive covered</t>
+  </si>
+  <si>
     <t>Phar_Patient_App_Create_PCase_Positive-OK</t>
   </si>
   <si>
+    <t xml:space="preserve">Dcase, PCase covered </t>
+  </si>
+  <si>
     <t>Prov_Patient_App_ViewIncomplete</t>
   </si>
   <si>
@@ -54,6 +66,12 @@
   </si>
   <si>
     <t>Phar_Patient_App_ViewIncomplete -ok</t>
+  </si>
+  <si>
+    <t>Save Progress covered</t>
+  </si>
+  <si>
+    <t>Prov_Patient_App_Create__PCase_Positive-OK</t>
   </si>
 </sst>
 </file>
@@ -61,18 +79,25 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -85,15 +110,30 @@
       <b/>
       <i/>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -102,7 +142,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -115,38 +155,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,13 +221,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -174,42 +253,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -220,34 +282,31 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="13"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="lightGray">
@@ -257,13 +316,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.6"/>
+        <bgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,7 +436,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,25 +466,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,31 +478,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -351,98 +506,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -451,56 +516,73 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="medium">
+        <color auto="1"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="medium">
+        <color auto="1"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="medium">
+        <color auto="1"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left style="medium">
+        <color auto="1"/>
       </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
+      <right style="medium">
+        <color auto="1"/>
       </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,7 +591,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,6 +620,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -548,162 +669,221 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1025,86 +1205,132 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>
   <cols>
-    <col min="2" max="2" width="46.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="19.1428571428571" customWidth="1"/>
-    <col min="4" max="4" width="39.2857142857143" customWidth="1"/>
-    <col min="6" max="6" width="41.1428571428571" customWidth="1"/>
+    <col min="1" max="1" width="16.1428571428571" style="1" customWidth="1"/>
+    <col min="2" max="2" width="46.1428571428571" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7142857142857" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.1428571428571" style="2" customWidth="1"/>
+    <col min="5" max="5" width="47.2857142857143" style="2" customWidth="1"/>
+    <col min="6" max="6" width="22.7142857142857" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9" style="3"/>
+    <col min="8" max="8" width="41.1428571428571" style="3" customWidth="1"/>
+    <col min="9" max="9" width="29.5714285714286" style="3" customWidth="1"/>
+    <col min="10" max="10" width="9" style="4"/>
+    <col min="11" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="15.75" spans="1:9">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>1</v>
       </c>
+      <c r="I1" s="8" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:9">
+      <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E2" s="12" t="s">
         <v>8</v>
       </c>
+      <c r="F2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="3" spans="1:9">
+      <c r="A3" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="H3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
+      <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/QA/testcases/TestCaseExe - Ok.xlsx
+++ b/QA/testcases/TestCaseExe - Ok.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <t>Module Name</t>
   </si>
@@ -72,6 +72,12 @@
   </si>
   <si>
     <t>Prov_Patient_App_Create__PCase_Positive-OK</t>
+  </si>
+  <si>
+    <t>Phar_Patient_App_Save_Back_Front_Navi</t>
+  </si>
+  <si>
+    <t>Front Back navigation verified saved details</t>
   </si>
 </sst>
 </file>
@@ -1205,17 +1211,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="16.1428571428571" style="1" customWidth="1"/>
     <col min="2" max="2" width="46.1428571428571" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.7142857142857" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.5714285714286" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.1428571428571" style="2" customWidth="1"/>
     <col min="5" max="5" width="47.2857142857143" style="2" customWidth="1"/>
     <col min="6" max="6" width="22.7142857142857" style="2" customWidth="1"/>
@@ -1331,6 +1337,17 @@
       </c>
       <c r="F4" s="2" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/QA/testcases/TestCaseExe - Ok.xlsx
+++ b/QA/testcases/TestCaseExe - Ok.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27465" windowHeight="13650"/>
+    <workbookView windowWidth="27465" windowHeight="13230" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="CPR" sheetId="1" r:id="rId1"/>
+    <sheet name="LLS" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -86,9 +86,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -138,15 +138,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,6 +154,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -167,6 +162,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -174,23 +185,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,86 +216,74 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,19 +328,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -352,163 +508,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,6 +522,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -538,21 +553,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -602,26 +602,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -642,16 +633,40 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -675,168 +690,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -844,16 +844,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
@@ -880,16 +880,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1213,23 +1213,23 @@
   <sheetPr/>
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="16.1428571428571" style="1" customWidth="1"/>
-    <col min="2" max="2" width="46.1428571428571" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.5714285714286" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.1428571428571" style="2" customWidth="1"/>
-    <col min="5" max="5" width="47.2857142857143" style="2" customWidth="1"/>
-    <col min="6" max="6" width="22.7142857142857" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9" style="3"/>
-    <col min="8" max="8" width="41.1428571428571" style="3" customWidth="1"/>
-    <col min="9" max="9" width="29.5714285714286" style="3" customWidth="1"/>
-    <col min="10" max="10" width="9" style="4"/>
-    <col min="11" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="16.1428571428571" style="2" customWidth="1"/>
+    <col min="2" max="2" width="46.1428571428571" style="2" customWidth="1"/>
+    <col min="3" max="3" width="43.5714285714286" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.1428571428571" style="3" customWidth="1"/>
+    <col min="5" max="5" width="47.2857142857143" style="3" customWidth="1"/>
+    <col min="6" max="6" width="22.7142857142857" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9" style="4"/>
+    <col min="8" max="8" width="41.1428571428571" style="4" customWidth="1"/>
+    <col min="9" max="9" width="29.5714285714286" style="4" customWidth="1"/>
+    <col min="10" max="10" width="9" style="5"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" spans="1:9">
@@ -1303,19 +1303,19 @@
       <c r="D3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1332,10 +1332,10 @@
       <c r="D4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1359,14 +1359,127 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D$1:D$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4"/>
+  <cols>
+    <col min="1" max="1" width="16.1428571428571" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.1428571428571" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.5714285714286" style="2" customWidth="1"/>
+    <col min="4" max="5" width="19.1428571428571" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.5714285714286" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9" style="4"/>
+    <col min="8" max="8" width="34.5714285714286" style="4" customWidth="1"/>
+    <col min="9" max="9" width="29.5714285714286" style="4" customWidth="1"/>
+    <col min="10" max="10" width="9" style="5"/>
+    <col min="11" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15.75" spans="1:10">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="5"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:10">
+      <c r="A2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:10">
+      <c r="A3" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:10">
+      <c r="A4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:10">
+      <c r="A5" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="5"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>

--- a/QA/testcases/TestCaseExe - Ok.xlsx
+++ b/QA/testcases/TestCaseExe - Ok.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27465" windowHeight="13230" activeTab="1"/>
+    <workbookView windowWidth="27465" windowHeight="13230" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CPR" sheetId="1" r:id="rId1"/>
     <sheet name="LLS" sheetId="2" r:id="rId2"/>
+    <sheet name="FAF" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -85,10 +86,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -146,6 +147,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -156,7 +178,52 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,39 +237,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,74 +253,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,13 +329,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,169 +509,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -593,11 +594,74 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -617,69 +681,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -695,148 +696,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1213,8 +1214,8 @@
   <sheetPr/>
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4"/>
@@ -1361,8 +1362,8 @@
   <sheetPr/>
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D$1:D$1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4"/>
@@ -1483,4 +1484,20 @@
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/QA/testcases/TestCaseExe - Ok.xlsx
+++ b/QA/testcases/TestCaseExe - Ok.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27465" windowHeight="13230" activeTab="2"/>
+    <workbookView windowWidth="27465" windowHeight="13230"/>
   </bookViews>
   <sheets>
     <sheet name="CPR" sheetId="1" r:id="rId1"/>
@@ -1214,8 +1214,8 @@
   <sheetPr/>
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4"/>
@@ -1491,7 +1491,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>

--- a/QA/testcases/TestCaseExe - Ok.xlsx
+++ b/QA/testcases/TestCaseExe - Ok.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
   <si>
     <t>Module Name</t>
   </si>
@@ -78,7 +78,10 @@
     <t>Phar_Patient_App_Save_Back_Front_Navi</t>
   </si>
   <si>
-    <t>Front Back navigation verified saved details</t>
+    <t>Front Back navigation verified saved details all pages</t>
+  </si>
+  <si>
+    <t>Phar_Portal_Mandatory_Fields</t>
   </si>
 </sst>
 </file>
@@ -87,9 +90,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -139,32 +142,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -178,22 +181,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,44 +206,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,12 +220,65 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -268,23 +287,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,187 +332,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,35 +597,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -642,11 +621,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -683,6 +668,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -696,148 +699,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1212,13 +1215,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A5:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="16.1428571428571" style="2" customWidth="1"/>
     <col min="2" max="2" width="46.1428571428571" style="2" customWidth="1"/>
@@ -1349,6 +1352,14 @@
       </c>
       <c r="C5" s="16" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/QA/testcases/TestCaseExe - Ok.xlsx
+++ b/QA/testcases/TestCaseExe - Ok.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
   <si>
     <t>Module Name</t>
   </si>
@@ -69,10 +69,13 @@
     <t>Phar_Patient_App_ViewIncomplete -ok</t>
   </si>
   <si>
+    <t>Save Progress covered all pages covered</t>
+  </si>
+  <si>
+    <t>Prov_Patient_App_Create__PCase_Positive-OK</t>
+  </si>
+  <si>
     <t>Save Progress covered</t>
-  </si>
-  <si>
-    <t>Prov_Patient_App_Create__PCase_Positive-OK</t>
   </si>
   <si>
     <t>Phar_Patient_App_Save_Back_Front_Navi</t>
@@ -89,10 +92,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -150,16 +153,78 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -171,41 +236,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,15 +259,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,59 +283,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -332,187 +335,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -599,8 +602,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -621,6 +626,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -632,6 +646,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -651,6 +674,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -665,182 +697,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1218,7 +1221,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A5:A6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>
@@ -1340,7 +1343,7 @@
         <v>18</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1348,10 +1351,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1359,7 +1362,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/QA/testcases/TestCaseExe - Ok.xlsx
+++ b/QA/testcases/TestCaseExe - Ok.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
   <si>
     <t>Module Name</t>
   </si>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t>Phar_Portal_Mandatory_Fields</t>
+  </si>
+  <si>
+    <t>Phar_Patient_App_Create__DCasePending-ok</t>
+  </si>
+  <si>
+    <t>Pending and verified no expenditure option</t>
   </si>
 </sst>
 </file>
@@ -92,8 +98,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -145,23 +151,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,29 +190,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,24 +203,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,15 +228,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,29 +267,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,187 +341,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,13 +606,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,15 +656,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -653,23 +678,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -677,23 +687,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -702,148 +708,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1218,13 +1224,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="16.1428571428571" style="2" customWidth="1"/>
     <col min="2" max="2" width="46.1428571428571" style="2" customWidth="1"/>
@@ -1363,6 +1369,17 @@
       </c>
       <c r="B6" s="16" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/QA/testcases/TestCaseExe - Ok.xlsx
+++ b/QA/testcases/TestCaseExe - Ok.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
   <si>
     <t>Module Name</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Save Progress covered</t>
+  </si>
+  <si>
+    <t>Patient_Reg_NewFundV_Denied_Yes</t>
   </si>
   <si>
     <t>Phar_Patient_App_Save_Back_Front_Navi</t>
@@ -99,9 +102,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -151,47 +154,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -203,17 +183,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,76 +244,62 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,187 +344,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -602,6 +605,78 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,78 +698,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -708,148 +711,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1227,7 +1230,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6"/>
@@ -1332,7 +1335,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" s="15" t="s">
         <v>4</v>
       </c>
@@ -1350,6 +1353,12 @@
       </c>
       <c r="F4" s="3" t="s">
         <v>19</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1357,10 +1366,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1368,7 +1377,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1376,10 +1385,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
